--- a/Proyectos Personales/SunCorp/Documentacion/Recursos/Catalogos/UsUsuarioPorZona.xlsx
+++ b/Proyectos Personales/SunCorp/Documentacion/Recursos/Catalogos/UsUsuarioPorZona.xlsx
@@ -10,7 +10,6 @@
     <sheet name="UsUsuarioPorZona" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="UsUsuarioPorZona">UsUsuarioPorZona!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>IdUsuarioZona</t>
   </si>
@@ -74,36 +73,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -402,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,9 +401,18 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>